--- a/Socheton/Contact/Contact_List.xlsx
+++ b/Socheton/Contact/Contact_List.xlsx
@@ -3,23 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84CE7D5F-C315-4145-A8C8-777B6AFAF653}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422C24EE-858C-4467-AAE9-C691E6BE1DC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SHED" sheetId="1" r:id="rId1"/>
     <sheet name="TMED" sheetId="3" r:id="rId2"/>
-    <sheet name="TECHEDU" sheetId="4" r:id="rId3"/>
-    <sheet name="MoEWOE" sheetId="5" r:id="rId4"/>
-    <sheet name="BMET" sheetId="6" r:id="rId5"/>
-    <sheet name="DYD" sheetId="7" r:id="rId6"/>
-    <sheet name="SEIP" sheetId="8" r:id="rId7"/>
-    <sheet name="ICTD" sheetId="9" r:id="rId8"/>
-    <sheet name="NGOAB" sheetId="10" r:id="rId9"/>
-    <sheet name="UN Entities BD" sheetId="11" r:id="rId10"/>
-    <sheet name="SMEF" sheetId="16" r:id="rId11"/>
-    <sheet name="BNFE" sheetId="17" r:id="rId12"/>
+    <sheet name="DME" sheetId="18" r:id="rId3"/>
+    <sheet name="TECHEDU" sheetId="4" r:id="rId4"/>
+    <sheet name="MoEWOE" sheetId="5" r:id="rId5"/>
+    <sheet name="BMET" sheetId="6" r:id="rId6"/>
+    <sheet name="DYD" sheetId="7" r:id="rId7"/>
+    <sheet name="SEIP" sheetId="8" r:id="rId8"/>
+    <sheet name="ICTD" sheetId="9" r:id="rId9"/>
+    <sheet name="NGOAB" sheetId="10" r:id="rId10"/>
+    <sheet name="UN Entities BD" sheetId="11" r:id="rId11"/>
+    <sheet name="SMEF" sheetId="16" r:id="rId12"/>
+    <sheet name="BNFE" sheetId="17" r:id="rId13"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2662" uniqueCount="1825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2734" uniqueCount="1870">
   <si>
     <t>Name</t>
   </si>
@@ -5510,6 +5511,141 @@
   </si>
   <si>
     <t>Md. Wahiduzzaman</t>
+  </si>
+  <si>
+    <t>Directorate of Madrasha Education</t>
+  </si>
+  <si>
+    <t>Shafiuddin Ahmed</t>
+  </si>
+  <si>
+    <t>dg@dme.gov.bd</t>
+  </si>
+  <si>
+    <t>Md. Ziaul Ahsan</t>
+  </si>
+  <si>
+    <t>DIRECTOR (ADMIN &amp; FINANCE)</t>
+  </si>
+  <si>
+    <t>ziaulahsan0000@gmail.com</t>
+  </si>
+  <si>
+    <t>MOHAMMED SAJEDUL ISLAM</t>
+  </si>
+  <si>
+    <t>DIRECTOR (training &amp; development)</t>
+  </si>
+  <si>
+    <t>02-41030161</t>
+  </si>
+  <si>
+    <t>MD. SAIFUL ISLAM</t>
+  </si>
+  <si>
+    <t>DEPUTY DIRECTOR (ADMIN)</t>
+  </si>
+  <si>
+    <t>ddadmeb@gmail.com</t>
+  </si>
+  <si>
+    <t>Mohammad Samsuzzaman</t>
+  </si>
+  <si>
+    <t>DEPUTY DIRECTOR (FINANCE)</t>
+  </si>
+  <si>
+    <t>ddfinancedme@gmail.com</t>
+  </si>
+  <si>
+    <t>MOHAMMAD JAHANGIR ALAM</t>
+  </si>
+  <si>
+    <t>DEPUTY DIRECTOR (TRAINING &amp; DEVELOPMENT)</t>
+  </si>
+  <si>
+    <t>ddtraining.dme@gmail.com</t>
+  </si>
+  <si>
+    <t>MD. AFAZ UDDIN</t>
+  </si>
+  <si>
+    <t>ASSISTANT DIRECTOR (GOVT: &amp; SENIOR MADRASAH)</t>
+  </si>
+  <si>
+    <t>adsm.dme@gmail.com</t>
+  </si>
+  <si>
+    <t>ASSISTANT DIRECTOR (DAKHIL &amp; EBTEDIEE)</t>
+  </si>
+  <si>
+    <t>addakhil.dme@gmail.com</t>
+  </si>
+  <si>
+    <t>dmefarid@gamil.com</t>
+  </si>
+  <si>
+    <t>01751-560992</t>
+  </si>
+  <si>
+    <t>MD. ABDUL MUKIT</t>
+  </si>
+  <si>
+    <t>ASSISTANT DIRECTOR (LAW &amp; AUDIT)</t>
+  </si>
+  <si>
+    <t>adfinance.dme@gmail.com</t>
+  </si>
+  <si>
+    <t>addme.bd71@gamil.com</t>
+  </si>
+  <si>
+    <t>Inspector</t>
+  </si>
+  <si>
+    <t>inspectorkhulna.dme@gmail.com</t>
+  </si>
+  <si>
+    <t>badshaprog3@gmail.com</t>
+  </si>
+  <si>
+    <t>ferdousialam72@gmail.com</t>
+  </si>
+  <si>
+    <t>hossain_ict89@yahoo.com</t>
+  </si>
+  <si>
+    <t>emonamir1968@yahoo.com</t>
+  </si>
+  <si>
+    <t>Mahfuza Yeasmin</t>
+  </si>
+  <si>
+    <t>Md. Farid Ahmed</t>
+  </si>
+  <si>
+    <t>Assistant Director (Audir &amp; Law)</t>
+  </si>
+  <si>
+    <t>Md. Shahinur Islam</t>
+  </si>
+  <si>
+    <t>Md. Helal Uddin</t>
+  </si>
+  <si>
+    <t>Md. Badsha Mia</t>
+  </si>
+  <si>
+    <t>Mst. Ferdoushi Alam</t>
+  </si>
+  <si>
+    <t>Muhammad Hossain</t>
+  </si>
+  <si>
+    <t>Emon Amir</t>
+  </si>
+  <si>
+    <t>Information and Communication Technology Division</t>
   </si>
 </sst>
 </file>
@@ -5708,18 +5844,6 @@
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5728,6 +5852,18 @@
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6029,14 +6165,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
@@ -6289,7 +6425,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="2" customFormat="1" ht="45">
+    <row r="15" spans="1:6" s="2" customFormat="1" ht="30">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -6309,7 +6445,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="2" customFormat="1" ht="45">
+    <row r="16" spans="1:6" s="2" customFormat="1" ht="30">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -6329,7 +6465,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="2" customFormat="1" ht="45">
+    <row r="17" spans="1:6" s="2" customFormat="1" ht="30">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -6349,7 +6485,7 @@
         <v>1778380051</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="2" customFormat="1" ht="45">
+    <row r="18" spans="1:6" s="2" customFormat="1" ht="30">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -6369,7 +6505,7 @@
         <v>1713581397</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="2" customFormat="1" ht="45">
+    <row r="19" spans="1:6" s="2" customFormat="1" ht="30">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -6389,7 +6525,7 @@
         <v>1552343974</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="2" customFormat="1" ht="45">
+    <row r="20" spans="1:6" s="2" customFormat="1" ht="30">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -6409,7 +6545,7 @@
         <v>1676769036</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="2" customFormat="1" ht="45">
+    <row r="21" spans="1:6" s="2" customFormat="1" ht="30">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -6429,7 +6565,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="2" customFormat="1" ht="45">
+    <row r="22" spans="1:6" s="2" customFormat="1" ht="30">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -6449,7 +6585,7 @@
         <v>1731061760</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="2" customFormat="1" ht="45">
+    <row r="23" spans="1:6" s="2" customFormat="1" ht="30">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -6489,7 +6625,7 @@
         <v>1716505871</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="2" customFormat="1" ht="45">
+    <row r="25" spans="1:6" s="2" customFormat="1" ht="30">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -6549,7 +6685,7 @@
         <v>1715784765</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="2" customFormat="1" ht="45">
+    <row r="28" spans="1:6" s="2" customFormat="1" ht="30">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -6569,7 +6705,7 @@
         <v>1711353174</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="2" customFormat="1" ht="45">
+    <row r="29" spans="1:6" s="2" customFormat="1" ht="30">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -6589,7 +6725,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="2" customFormat="1" ht="45">
+    <row r="30" spans="1:6" s="2" customFormat="1" ht="30">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -6609,7 +6745,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="2" customFormat="1" ht="45">
+    <row r="31" spans="1:6" s="2" customFormat="1" ht="30">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -6629,7 +6765,7 @@
         <v>1912553070</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="2" customFormat="1" ht="45">
+    <row r="32" spans="1:6" s="2" customFormat="1" ht="30">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -6647,7 +6783,7 @@
       </c>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6" s="2" customFormat="1" ht="45">
+    <row r="33" spans="1:6" s="2" customFormat="1" ht="30">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -6664,7 +6800,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="2" customFormat="1" ht="45">
+    <row r="34" spans="1:6" s="2" customFormat="1" ht="30">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -6701,7 +6837,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="2" customFormat="1" ht="45">
+    <row r="36" spans="1:6" s="2" customFormat="1" ht="30">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -6775,7 +6911,7 @@
         <v>1711015707</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="2" customFormat="1" ht="45">
+    <row r="40" spans="1:6" s="2" customFormat="1" ht="30">
       <c r="A40" s="2">
         <v>38</v>
       </c>
@@ -6795,7 +6931,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="2" customFormat="1" ht="45">
+    <row r="41" spans="1:6" s="2" customFormat="1" ht="30">
       <c r="A41" s="2">
         <v>39</v>
       </c>
@@ -6812,7 +6948,7 @@
         <v>1710052965</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="2" customFormat="1" ht="45">
+    <row r="42" spans="1:6" s="2" customFormat="1" ht="30">
       <c r="A42" s="2">
         <v>40</v>
       </c>
@@ -6832,7 +6968,7 @@
         <v>1764611292</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="2" customFormat="1" ht="45">
+    <row r="43" spans="1:6" s="2" customFormat="1" ht="30">
       <c r="A43" s="2">
         <v>41</v>
       </c>
@@ -6852,7 +6988,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="2" customFormat="1" ht="45">
+    <row r="44" spans="1:6" s="2" customFormat="1" ht="30">
       <c r="A44" s="2">
         <v>42</v>
       </c>
@@ -6872,7 +7008,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="2" customFormat="1" ht="45">
+    <row r="45" spans="1:6" s="2" customFormat="1" ht="30">
       <c r="A45" s="2">
         <v>43</v>
       </c>
@@ -6892,7 +7028,7 @@
         <v>1798596290</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="2" customFormat="1" ht="45">
+    <row r="46" spans="1:6" s="2" customFormat="1" ht="30">
       <c r="A46" s="2">
         <v>44</v>
       </c>
@@ -6912,7 +7048,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="2" customFormat="1" ht="45">
+    <row r="47" spans="1:6" s="2" customFormat="1" ht="30">
       <c r="A47" s="2">
         <v>45</v>
       </c>
@@ -6992,7 +7128,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="51" spans="1:6" s="2" customFormat="1" ht="45">
+    <row r="51" spans="1:6" s="2" customFormat="1" ht="30">
       <c r="A51" s="2">
         <v>49</v>
       </c>
@@ -7012,7 +7148,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="52" spans="1:6" s="2" customFormat="1" ht="45">
+    <row r="52" spans="1:6" s="2" customFormat="1" ht="30">
       <c r="A52" s="2">
         <v>50</v>
       </c>
@@ -7032,7 +7168,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="53" spans="1:6" s="2" customFormat="1" ht="45">
+    <row r="53" spans="1:6" s="2" customFormat="1" ht="30">
       <c r="A53" s="2">
         <v>51</v>
       </c>
@@ -7052,7 +7188,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="54" spans="1:6" s="2" customFormat="1" ht="45">
+    <row r="54" spans="1:6" s="2" customFormat="1" ht="30">
       <c r="A54" s="2">
         <v>52</v>
       </c>
@@ -7072,7 +7208,7 @@
         <v>1732255144</v>
       </c>
     </row>
-    <row r="55" spans="1:6" s="2" customFormat="1" ht="45">
+    <row r="55" spans="1:6" s="2" customFormat="1" ht="30">
       <c r="A55" s="2">
         <v>53</v>
       </c>
@@ -7092,7 +7228,7 @@
         <v>1726224802</v>
       </c>
     </row>
-    <row r="56" spans="1:6" s="2" customFormat="1" ht="45">
+    <row r="56" spans="1:6" s="2" customFormat="1" ht="30">
       <c r="A56" s="2">
         <v>54</v>
       </c>
@@ -7112,7 +7248,7 @@
         <v>1552373357</v>
       </c>
     </row>
-    <row r="57" spans="1:6" s="2" customFormat="1" ht="45">
+    <row r="57" spans="1:6" s="2" customFormat="1" ht="30">
       <c r="A57" s="2">
         <v>55</v>
       </c>
@@ -7130,7 +7266,7 @@
       </c>
       <c r="F57" s="3"/>
     </row>
-    <row r="58" spans="1:6" s="2" customFormat="1" ht="45">
+    <row r="58" spans="1:6" s="2" customFormat="1" ht="30">
       <c r="A58" s="2">
         <v>56</v>
       </c>
@@ -7150,7 +7286,7 @@
         <v>1711904468</v>
       </c>
     </row>
-    <row r="59" spans="1:6" s="2" customFormat="1" ht="45">
+    <row r="59" spans="1:6" s="2" customFormat="1" ht="30">
       <c r="A59" s="2">
         <v>57</v>
       </c>
@@ -7186,7 +7322,7 @@
       <c r="E60" s="18" t="s">
         <v>1636</v>
       </c>
-      <c r="F60" s="25">
+      <c r="F60" s="21">
         <v>29669813</v>
       </c>
     </row>
@@ -7390,6 +7526,534 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0566EEEB-7C01-455D-9C56-2211B8522E7E}">
+  <dimension ref="A1:F40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="36.140625" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="25.5">
+      <c r="A1" s="25" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>1482</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="17">
+        <v>1</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>1483</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>1485</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30">
+      <c r="A4" s="17">
+        <v>2</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>774</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>1487</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>1483</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>1488</v>
+      </c>
+      <c r="F4" s="19">
+        <v>1552380993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30">
+      <c r="A5" s="17">
+        <v>3</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>1483</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>1491</v>
+      </c>
+      <c r="F5" s="19">
+        <v>255007403</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="17">
+        <v>4</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>1493</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>1483</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>1494</v>
+      </c>
+      <c r="F6" s="19">
+        <v>255007404</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30">
+      <c r="A7" s="17">
+        <v>5</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>1496</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>1483</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30">
+      <c r="A8" s="17">
+        <v>6</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>1500</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>1483</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>1501</v>
+      </c>
+      <c r="F8" s="19">
+        <v>255007399</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30">
+      <c r="A9" s="17">
+        <v>7</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>1503</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>1483</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>1504</v>
+      </c>
+      <c r="F9" s="19">
+        <v>255007394</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30">
+      <c r="A10" s="17">
+        <v>8</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>1483</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>1507</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30">
+      <c r="A11" s="17">
+        <v>9</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>1510</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>1483</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>1511</v>
+      </c>
+      <c r="F11" s="19">
+        <v>1531722984</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30">
+      <c r="A12" s="17">
+        <v>10</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>1513</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>1483</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>1511</v>
+      </c>
+      <c r="F12" s="19">
+        <v>255007395</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="17">
+        <v>11</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>1483</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>1516</v>
+      </c>
+      <c r="F13" s="19">
+        <v>1729097455</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="17">
+        <v>12</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>1518</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>1483</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>1520</v>
+      </c>
+      <c r="F14" s="19">
+        <v>1911924252</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="17">
+        <v>13</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>1483</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>1522</v>
+      </c>
+      <c r="F15" s="19">
+        <v>1718533373</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{FCB98059-5141-49B2-94C7-BFC2AB84B572}"/>
+    <hyperlink ref="E5" r:id="rId2" xr:uid="{8BE7DE8A-99ED-4765-81CE-25F76CF3A772}"/>
+    <hyperlink ref="E6" r:id="rId3" xr:uid="{BD04441D-AAA5-4365-AC22-75F13D0DD860}"/>
+    <hyperlink ref="E7" r:id="rId4" xr:uid="{3D33BAEF-B3DB-42D7-BEC5-2DC1E3EC974F}"/>
+    <hyperlink ref="E8" r:id="rId5" xr:uid="{BCB266CE-715C-4CA1-B7CF-5EC945453B6E}"/>
+    <hyperlink ref="E9" r:id="rId6" xr:uid="{1A8D1A27-D4ED-450A-AB7F-3543C37837B3}"/>
+    <hyperlink ref="E10" r:id="rId7" xr:uid="{88333453-AA54-45C5-98A2-57D3A9C317E4}"/>
+    <hyperlink ref="E13" r:id="rId8" xr:uid="{3BF32177-301F-472F-A09F-B8C3369B1A6B}"/>
+    <hyperlink ref="E14" r:id="rId9" xr:uid="{08D66F44-FF8B-4EB5-872B-42F7B6838868}"/>
+    <hyperlink ref="E15" r:id="rId10" xr:uid="{C1C384C2-1EB7-46A7-9CEE-462B8F24DB20}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13511AC9-EDD9-434B-912C-BDA7C318888D}">
   <dimension ref="A1:F37"/>
   <sheetViews>
@@ -7407,14 +8071,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.5">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>1523</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="17" t="s">
@@ -8006,7 +8670,7 @@
       <c r="E33" s="18" t="s">
         <v>1623</v>
       </c>
-      <c r="F33" s="24">
+      <c r="F33" s="20">
         <v>1310273936</v>
       </c>
     </row>
@@ -8026,7 +8690,7 @@
       <c r="E34" s="18" t="s">
         <v>1625</v>
       </c>
-      <c r="F34" s="24">
+      <c r="F34" s="20">
         <v>1681523496</v>
       </c>
     </row>
@@ -8064,7 +8728,7 @@
       <c r="E36" s="18" t="s">
         <v>1633</v>
       </c>
-      <c r="F36" s="26"/>
+      <c r="F36" s="22"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="17">
@@ -8082,7 +8746,7 @@
       <c r="E37" s="18" t="s">
         <v>1638</v>
       </c>
-      <c r="F37" s="26">
+      <c r="F37" s="22">
         <v>28159001</v>
       </c>
     </row>
@@ -8133,12 +8797,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF19544-DBBC-4EE4-8CDE-FB2F731FFCCB}">
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F2"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8152,14 +8816,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.5">
-      <c r="A1" s="23" t="s">
-        <v>1483</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
+      <c r="A1" s="25" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="17" t="s">
@@ -8231,7 +8895,7 @@
       <c r="C5" s="17" t="s">
         <v>1647</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="23" t="s">
         <v>1660</v>
       </c>
       <c r="E5" s="18" t="s">
@@ -8251,7 +8915,7 @@
       <c r="C6" s="17" t="s">
         <v>1647</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="23" t="s">
         <v>1661</v>
       </c>
       <c r="E6" s="18" t="s">
@@ -8271,7 +8935,7 @@
       <c r="C7" s="17" t="s">
         <v>1647</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="23" t="s">
         <v>1662</v>
       </c>
       <c r="E7" s="18" t="s">
@@ -8291,7 +8955,7 @@
       <c r="C8" s="17" t="s">
         <v>1653</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="23" t="s">
         <v>1663</v>
       </c>
       <c r="E8" s="18" t="s">
@@ -8311,7 +8975,7 @@
       <c r="C9" s="17" t="s">
         <v>1653</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="23" t="s">
         <v>1664</v>
       </c>
       <c r="E9" s="17" t="s">
@@ -8351,7 +9015,7 @@
       <c r="C11" s="17" t="s">
         <v>1658</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="23" t="s">
         <v>1667</v>
       </c>
       <c r="E11" s="18" t="s">
@@ -8371,7 +9035,7 @@
       <c r="C12" s="17" t="s">
         <v>1658</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="23" t="s">
         <v>1670</v>
       </c>
       <c r="E12" s="18" t="s">
@@ -8391,7 +9055,7 @@
       <c r="C13" s="17" t="s">
         <v>1658</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="23" t="s">
         <v>1673</v>
       </c>
       <c r="E13" s="18" t="s">
@@ -8471,7 +9135,7 @@
       <c r="C17" s="17" t="s">
         <v>1658</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="23" t="s">
         <v>1686</v>
       </c>
       <c r="E17" s="18" t="s">
@@ -8491,7 +9155,7 @@
       <c r="C18" s="17" t="s">
         <v>1658</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="23" t="s">
         <v>1689</v>
       </c>
       <c r="E18" s="17" t="s">
@@ -8961,7 +9625,7 @@
         <v>1520101314</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="45">
+    <row r="42" spans="1:6" ht="30">
       <c r="A42" s="17">
         <v>40</v>
       </c>
@@ -9031,7 +9695,7 @@
       <c r="C45" s="17" t="s">
         <v>1736</v>
       </c>
-      <c r="D45" s="27" t="s">
+      <c r="D45" s="23" t="s">
         <v>1758</v>
       </c>
       <c r="E45" s="18" t="s">
@@ -9051,7 +9715,7 @@
       <c r="C46" s="17" t="s">
         <v>1736</v>
       </c>
-      <c r="D46" s="27" t="s">
+      <c r="D46" s="23" t="s">
         <v>1761</v>
       </c>
       <c r="E46" s="18" t="s">
@@ -9071,7 +9735,7 @@
       <c r="C47" s="17" t="s">
         <v>1736</v>
       </c>
-      <c r="D47" s="27" t="s">
+      <c r="D47" s="23" t="s">
         <v>1764</v>
       </c>
       <c r="E47" s="18" t="s">
@@ -9091,7 +9755,7 @@
       <c r="C48" s="17" t="s">
         <v>1736</v>
       </c>
-      <c r="D48" s="27" t="s">
+      <c r="D48" s="23" t="s">
         <v>1767</v>
       </c>
       <c r="E48" s="18" t="s">
@@ -9111,7 +9775,7 @@
       <c r="C49" s="17" t="s">
         <v>1736</v>
       </c>
-      <c r="D49" s="27" t="s">
+      <c r="D49" s="23" t="s">
         <v>1770</v>
       </c>
       <c r="E49" s="18" t="s">
@@ -9215,12 +9879,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B350BBE0-6406-4223-97B9-EABBA0BC7373}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9232,14 +9896,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="25.5">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>1778</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
       <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:7">
@@ -9572,7 +10236,7 @@
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9587,14 +10251,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
@@ -10307,6 +10971,397 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662A2A83-B6E2-40A7-A23B-D8E628DEF110}">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="25.5">
+      <c r="A1" s="25" t="s">
+        <v>1825</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="17">
+        <v>1</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>1825</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>1827</v>
+      </c>
+      <c r="F3" s="19">
+        <v>1552318035</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30">
+      <c r="A4" s="17">
+        <v>2</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>1828</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>1829</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>1825</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>1830</v>
+      </c>
+      <c r="F4" s="19">
+        <v>1711944725</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30">
+      <c r="A5" s="17">
+        <v>3</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>1831</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>1825</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="19" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30">
+      <c r="A6" s="17">
+        <v>4</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>1834</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>1835</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>1825</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>1836</v>
+      </c>
+      <c r="F6" s="19">
+        <v>1718019490</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30">
+      <c r="A7" s="17">
+        <v>5</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>1837</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>1838</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>1825</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>1839</v>
+      </c>
+      <c r="F7" s="19">
+        <v>1711056876</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="45">
+      <c r="A8" s="17">
+        <v>6</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>1840</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>1841</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>1825</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>1842</v>
+      </c>
+      <c r="F8" s="19">
+        <v>1718096058</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="45">
+      <c r="A9" s="17">
+        <v>7</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>1843</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>1844</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>1825</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>1845</v>
+      </c>
+      <c r="F9" s="19">
+        <v>1718658910</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30">
+      <c r="A10" s="17">
+        <v>8</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>1860</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>1846</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>1825</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>1847</v>
+      </c>
+      <c r="F10" s="19">
+        <v>1711359097</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30">
+      <c r="A11" s="17">
+        <v>9</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>1862</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>1825</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>1848</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30">
+      <c r="A12" s="17">
+        <v>10</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>1850</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>1851</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>1825</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>1852</v>
+      </c>
+      <c r="F12" s="19">
+        <v>1911916877</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="17">
+        <v>11</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>1863</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>1810</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>1825</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>1853</v>
+      </c>
+      <c r="F13" s="19">
+        <v>1751375556</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30">
+      <c r="A14" s="17">
+        <v>12</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>1864</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>1854</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>1825</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>1855</v>
+      </c>
+      <c r="F14" s="19">
+        <v>1721444351</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="17">
+        <v>13</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>1865</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>1854</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>1825</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>1856</v>
+      </c>
+      <c r="F15" s="19">
+        <v>1718938209</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="17">
+        <v>14</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>1854</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>1825</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>1857</v>
+      </c>
+      <c r="F16" s="19">
+        <v>1716182232</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>1854</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>1825</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>1858</v>
+      </c>
+      <c r="F17" s="19">
+        <v>1813685510</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="17">
+        <v>16</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>1854</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>1825</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>1859</v>
+      </c>
+      <c r="F18" s="19">
+        <v>1712726812</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{BAA1B904-0037-47D4-BECF-61014945885A}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{B6565F54-6339-4851-95D4-406391D93CBE}"/>
+    <hyperlink ref="E6" r:id="rId3" xr:uid="{3E86EE84-C047-462F-B3A0-391D396637BC}"/>
+    <hyperlink ref="E7" r:id="rId4" xr:uid="{73A6117A-6CAC-47FC-A53C-20A39F2FAD9E}"/>
+    <hyperlink ref="E8" r:id="rId5" xr:uid="{F40AB10B-E7CE-456B-A958-A5A5542DD50A}"/>
+    <hyperlink ref="E9" r:id="rId6" xr:uid="{FC23B9AD-A786-4159-9988-F7F2301A8E73}"/>
+    <hyperlink ref="E10" r:id="rId7" xr:uid="{DDC51C53-2684-44FD-ADF5-E30E92C80DCE}"/>
+    <hyperlink ref="E11" r:id="rId8" xr:uid="{6247C2C9-5D9A-4FF3-AB75-E899C1D3C88E}"/>
+    <hyperlink ref="E12" r:id="rId9" xr:uid="{969F6244-EEA8-454D-9206-2BB75031DD55}"/>
+    <hyperlink ref="E13" r:id="rId10" xr:uid="{99F0C690-0A52-4169-BA6A-39F07AE556A8}"/>
+    <hyperlink ref="E14" r:id="rId11" xr:uid="{E56A235E-8A7C-4E73-AFFC-7D91AE2C4C0C}"/>
+    <hyperlink ref="E15" r:id="rId12" xr:uid="{B226D26C-5033-4654-A8EB-A79DDCCCEA2C}"/>
+    <hyperlink ref="E16" r:id="rId13" xr:uid="{BB1524AD-744C-4614-BB68-1680DA9D0946}"/>
+    <hyperlink ref="E17" r:id="rId14" xr:uid="{47EAD319-ABB6-4514-AA59-1C45FC440884}"/>
+    <hyperlink ref="E18" r:id="rId15" xr:uid="{EA46E02B-D475-47F8-B93A-6C67F41F648A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId16"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E355C957-C9F2-4240-BF7D-3223C10FC84E}">
   <dimension ref="A1:F52"/>
   <sheetViews>
@@ -10324,14 +11379,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="24" t="s">
         <v>275</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
@@ -10633,7 +11688,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="2" customFormat="1" ht="60">
+    <row r="17" spans="1:6" s="2" customFormat="1" ht="45">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -11329,12 +12384,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB9FE0DC-0546-4303-A31D-84FCDB11FAD1}">
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11347,14 +12402,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="24" t="s">
         <v>412</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
@@ -12277,7 +13332,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20679603-B946-4BC4-B9FE-5A6CB3B25D6C}">
   <dimension ref="A1:F89"/>
   <sheetViews>
@@ -12295,14 +13350,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.5">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="24" t="s">
         <v>549</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
@@ -12364,7 +13419,7 @@
         <v>1936993651</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30">
+    <row r="5" spans="1:6" ht="45">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -14033,7 +15088,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{825B2715-03B3-43B9-B5A7-95117B70CB41}">
   <dimension ref="A1:F42"/>
   <sheetViews>
@@ -14051,14 +15106,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.5">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="24" t="s">
         <v>739</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
@@ -14891,7 +15946,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA97054-2957-4A5E-85E9-9ED43C6A2756}">
   <dimension ref="A1:F186"/>
   <sheetViews>
@@ -14909,14 +15964,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.5">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="24" t="s">
         <v>873</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
@@ -16725,7 +17780,7 @@
       <c r="B92" s="8" t="s">
         <v>1153</v>
       </c>
-      <c r="C92" s="21" t="s">
+      <c r="C92" s="26" t="s">
         <v>1154</v>
       </c>
       <c r="D92" s="8" t="s">
@@ -16745,7 +17800,7 @@
       <c r="B93" s="8" t="s">
         <v>1156</v>
       </c>
-      <c r="C93" s="22"/>
+      <c r="C93" s="27"/>
       <c r="D93" s="8" t="s">
         <v>1175</v>
       </c>
@@ -18645,12 +19700,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D2DA89-2D91-4E66-BE4F-EE783D5328E7}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18665,14 +19720,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.5">
-      <c r="A1" s="20" t="s">
-        <v>873</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="A1" s="24" t="s">
+        <v>1869</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
@@ -19259,532 +20314,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0566EEEB-7C01-455D-9C56-2211B8522E7E}">
-  <dimension ref="A1:F40"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection sqref="A1:F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="23.5703125" customWidth="1"/>
-    <col min="3" max="3" width="36.140625" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="25.5">
-      <c r="A1" s="23" t="s">
-        <v>1483</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>1482</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="17">
-        <v>1</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>1484</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>1483</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>1485</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>1486</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="30">
-      <c r="A4" s="17">
-        <v>2</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>774</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>1487</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>1483</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>1488</v>
-      </c>
-      <c r="F4" s="19">
-        <v>1552380993</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30">
-      <c r="A5" s="17">
-        <v>3</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>1489</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>1490</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>1483</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>1491</v>
-      </c>
-      <c r="F5" s="19">
-        <v>255007403</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="17">
-        <v>4</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>1492</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>1493</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>1483</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>1494</v>
-      </c>
-      <c r="F6" s="19">
-        <v>255007404</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30">
-      <c r="A7" s="17">
-        <v>5</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>1495</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>1496</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>1483</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>1497</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>1498</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="30">
-      <c r="A8" s="17">
-        <v>6</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>1499</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>1500</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>1483</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>1501</v>
-      </c>
-      <c r="F8" s="19">
-        <v>255007399</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="30">
-      <c r="A9" s="17">
-        <v>7</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>1502</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>1503</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>1483</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>1504</v>
-      </c>
-      <c r="F9" s="19">
-        <v>255007394</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="30">
-      <c r="A10" s="17">
-        <v>8</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>1505</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>1506</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>1483</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>1507</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>1508</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="30">
-      <c r="A11" s="17">
-        <v>9</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>1509</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>1510</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>1483</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>1511</v>
-      </c>
-      <c r="F11" s="19">
-        <v>1531722984</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="30">
-      <c r="A12" s="17">
-        <v>10</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>1512</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>1513</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>1483</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>1511</v>
-      </c>
-      <c r="F12" s="19">
-        <v>255007395</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="17">
-        <v>11</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>1514</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>1515</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>1483</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>1516</v>
-      </c>
-      <c r="F13" s="19">
-        <v>1729097455</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="17">
-        <v>12</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>1517</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>1518</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>1483</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>1520</v>
-      </c>
-      <c r="F14" s="19">
-        <v>1911924252</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="17">
-        <v>13</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>1521</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>1519</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>1483</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>1522</v>
-      </c>
-      <c r="F15" s="19">
-        <v>1718533373</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" xr:uid="{FCB98059-5141-49B2-94C7-BFC2AB84B572}"/>
-    <hyperlink ref="E5" r:id="rId2" xr:uid="{8BE7DE8A-99ED-4765-81CE-25F76CF3A772}"/>
-    <hyperlink ref="E6" r:id="rId3" xr:uid="{BD04441D-AAA5-4365-AC22-75F13D0DD860}"/>
-    <hyperlink ref="E7" r:id="rId4" xr:uid="{3D33BAEF-B3DB-42D7-BEC5-2DC1E3EC974F}"/>
-    <hyperlink ref="E8" r:id="rId5" xr:uid="{BCB266CE-715C-4CA1-B7CF-5EC945453B6E}"/>
-    <hyperlink ref="E9" r:id="rId6" xr:uid="{1A8D1A27-D4ED-450A-AB7F-3543C37837B3}"/>
-    <hyperlink ref="E10" r:id="rId7" xr:uid="{88333453-AA54-45C5-98A2-57D3A9C317E4}"/>
-    <hyperlink ref="E13" r:id="rId8" xr:uid="{3BF32177-301F-472F-A09F-B8C3369B1A6B}"/>
-    <hyperlink ref="E14" r:id="rId9" xr:uid="{08D66F44-FF8B-4EB5-872B-42F7B6838868}"/>
-    <hyperlink ref="E15" r:id="rId10" xr:uid="{C1C384C2-1EB7-46A7-9CEE-462B8F24DB20}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
-</worksheet>
 </file>
--- a/Socheton/Contact/Contact_List.xlsx
+++ b/Socheton/Contact/Contact_List.xlsx
@@ -3,24 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422C24EE-858C-4467-AAE9-C691E6BE1DC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85DCF04B-E647-454E-9F5C-644081338197}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SHED" sheetId="1" r:id="rId1"/>
-    <sheet name="TMED" sheetId="3" r:id="rId2"/>
-    <sheet name="DME" sheetId="18" r:id="rId3"/>
-    <sheet name="TECHEDU" sheetId="4" r:id="rId4"/>
-    <sheet name="MoEWOE" sheetId="5" r:id="rId5"/>
-    <sheet name="BMET" sheetId="6" r:id="rId6"/>
-    <sheet name="DYD" sheetId="7" r:id="rId7"/>
-    <sheet name="SEIP" sheetId="8" r:id="rId8"/>
-    <sheet name="ICTD" sheetId="9" r:id="rId9"/>
-    <sheet name="NGOAB" sheetId="10" r:id="rId10"/>
-    <sheet name="UN Entities BD" sheetId="11" r:id="rId11"/>
-    <sheet name="SMEF" sheetId="16" r:id="rId12"/>
-    <sheet name="BNFE" sheetId="17" r:id="rId13"/>
+    <sheet name="DSHE" sheetId="19" r:id="rId2"/>
+    <sheet name="TMED" sheetId="3" r:id="rId3"/>
+    <sheet name="DME" sheetId="18" r:id="rId4"/>
+    <sheet name="DTE" sheetId="4" r:id="rId5"/>
+    <sheet name="MoEWOE" sheetId="5" r:id="rId6"/>
+    <sheet name="BMET" sheetId="6" r:id="rId7"/>
+    <sheet name="DYD" sheetId="7" r:id="rId8"/>
+    <sheet name="SEIP" sheetId="8" r:id="rId9"/>
+    <sheet name="ICTD" sheetId="9" r:id="rId10"/>
+    <sheet name="NGOAB" sheetId="10" r:id="rId11"/>
+    <sheet name="UN Entities BD" sheetId="11" r:id="rId12"/>
+    <sheet name="SMEF" sheetId="16" r:id="rId13"/>
+    <sheet name="BNFE" sheetId="17" r:id="rId14"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2734" uniqueCount="1870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2944" uniqueCount="2031">
   <si>
     <t>Name</t>
   </si>
@@ -5646,6 +5647,489 @@
   </si>
   <si>
     <t>Information and Communication Technology Division</t>
+  </si>
+  <si>
+    <t>Directorate of Secondary and Higher Education</t>
+  </si>
+  <si>
+    <t>Professor Dr. Syed Md. Golam Faruk</t>
+  </si>
+  <si>
+    <t>dg@dshe.gov.bd</t>
+  </si>
+  <si>
+    <t>9553542 P.A 95</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Professor Md. Shahedul Khabir Chowdhury</t>
+  </si>
+  <si>
+    <t>Director (College &amp; Administration)</t>
+  </si>
+  <si>
+    <t>dir-admin@dshe.gov.bd</t>
+  </si>
+  <si>
+    <t>College &amp; Administration wing</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Md. Ruhul Momin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Deputy Director (General Administration)</t>
+  </si>
+  <si>
+    <t>General Administration Section</t>
+  </si>
+  <si>
+    <t>Hosne Ara Ferdous</t>
+  </si>
+  <si>
+    <t>Education Officer</t>
+  </si>
+  <si>
+    <t>General Administration</t>
+  </si>
+  <si>
+    <t>lopasubah@gmail.com</t>
+  </si>
+  <si>
+    <t>MD. ABUL KASHEM</t>
+  </si>
+  <si>
+    <t>Education Officer (Law-1)</t>
+  </si>
+  <si>
+    <t>Law Section</t>
+  </si>
+  <si>
+    <t>kashem20111964@gmail.com</t>
+  </si>
+  <si>
+    <t>Md.Aminul Islam</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Administration</t>
+  </si>
+  <si>
+    <t>iaminul1962@gmail.com</t>
+  </si>
+  <si>
+    <t>MD. YOUSUF ALI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> yousufdshe@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dr. Shah Mohammad Amir Ali</t>
+  </si>
+  <si>
+    <t>Deputy Director (College-1)</t>
+  </si>
+  <si>
+    <t>Government College Section</t>
+  </si>
+  <si>
+    <t>ddgovtcollege@gmail.com</t>
+  </si>
+  <si>
+    <t>MD. ANAMUL HAQUE HAWLADER</t>
+  </si>
+  <si>
+    <t>Deputy Director (College-2)</t>
+  </si>
+  <si>
+    <t>Non Govt. College Section</t>
+  </si>
+  <si>
+    <t>ahowlader525@gamil.com</t>
+  </si>
+  <si>
+    <t>Md. Abdul Kader</t>
+  </si>
+  <si>
+    <t>Assistant Director (College-3)</t>
+  </si>
+  <si>
+    <t>Private College Section</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> abdulkader789@gmail.com</t>
+  </si>
+  <si>
+    <t>SHAHNAZ AHMED ANNIE</t>
+  </si>
+  <si>
+    <t>Education Officer (ACR)</t>
+  </si>
+  <si>
+    <t>01763-765383</t>
+  </si>
+  <si>
+    <t>Khandaker Azizur Rahman</t>
+  </si>
+  <si>
+    <t>Senior Systems Analyst</t>
+  </si>
+  <si>
+    <t>EMIS Cell</t>
+  </si>
+  <si>
+    <t>azizur77@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MOHAMMED JAMILUR RAHMAN</t>
+  </si>
+  <si>
+    <t>Programmer(EMIS in Charge)</t>
+  </si>
+  <si>
+    <t>jamilur21@yahoo.com</t>
+  </si>
+  <si>
+    <t>SHARIFUL ISLAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Programmer</t>
+  </si>
+  <si>
+    <t>sharifprog@gmail.com</t>
+  </si>
+  <si>
+    <t>01716-866036</t>
+  </si>
+  <si>
+    <t>MD.JOHIR UDDIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> johir_programmer@yahoo.com</t>
+  </si>
+  <si>
+    <t>Akhtaruzzaman Bhuiyan</t>
+  </si>
+  <si>
+    <t>Assistant Director (Physical Education) Attached Law</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Physical Education Section</t>
+  </si>
+  <si>
+    <t>mou.tamanna@yahoo.com</t>
+  </si>
+  <si>
+    <t>MOHAMMAD ABDUL SALAM</t>
+  </si>
+  <si>
+    <t>Assistant Director (Physical Education)</t>
+  </si>
+  <si>
+    <t>Physical Education Section</t>
+  </si>
+  <si>
+    <t>01816-645669</t>
+  </si>
+  <si>
+    <t>PROFESSOR MUHAMMAD NASIR UDDIN</t>
+  </si>
+  <si>
+    <t>HRM Section</t>
+  </si>
+  <si>
+    <t>০১৭১২-২০১৬১৪</t>
+  </si>
+  <si>
+    <t>ASAKUL HOQUE</t>
+  </si>
+  <si>
+    <t>Sultana Khan</t>
+  </si>
+  <si>
+    <t>khandip193@gmail.com</t>
+  </si>
+  <si>
+    <t>HAFIZUR RAHMAN</t>
+  </si>
+  <si>
+    <t>PPP Cell</t>
+  </si>
+  <si>
+    <t>Md. Aminul Islam Tuku</t>
+  </si>
+  <si>
+    <t>Assistant Director (Secondary-1)</t>
+  </si>
+  <si>
+    <t>Secondary Section</t>
+  </si>
+  <si>
+    <t>addsheseconday1@gmail.com</t>
+  </si>
+  <si>
+    <t>Durga Rani Sikdar</t>
+  </si>
+  <si>
+    <t>Assistant Director (Secondary-2)</t>
+  </si>
+  <si>
+    <t>Syed Mainul Hassan</t>
+  </si>
+  <si>
+    <t>Deputy Director (Special Education)</t>
+  </si>
+  <si>
+    <t>Special Education Section</t>
+  </si>
+  <si>
+    <t>moinul08hassan@gmail.com</t>
+  </si>
+  <si>
+    <t>Md. Khalid Shifullah</t>
+  </si>
+  <si>
+    <t>Assistant Director (Special Education)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Special Education Section</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ksaifullah1977@gmail.com</t>
+  </si>
+  <si>
+    <t>CHANDRA SHEKHAR HALDER</t>
+  </si>
+  <si>
+    <t>Education Officer (Secondary-1)</t>
+  </si>
+  <si>
+    <t>01911-554485</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Md. Tariqul Islam</t>
+  </si>
+  <si>
+    <t>Education Officer (Secondary-2)</t>
+  </si>
+  <si>
+    <t>edudshesecondary2@gmail.com</t>
+  </si>
+  <si>
+    <t>Anika Raisa Chowdhury</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Deputy Director (Planning &amp; Development)</t>
+  </si>
+  <si>
+    <t>Planning and Development Section</t>
+  </si>
+  <si>
+    <t>aniqaraisa68@gmail.com</t>
+  </si>
+  <si>
+    <t>SABINA BEGUM</t>
+  </si>
+  <si>
+    <t>Assistant Director-1 (Planning &amp; Development)</t>
+  </si>
+  <si>
+    <t>Dil Afroj Binte Asir</t>
+  </si>
+  <si>
+    <t>Assistant Director-2 (Planning &amp; Development)</t>
+  </si>
+  <si>
+    <t>dil_afroz77@yahoo.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 01716-919173</t>
+  </si>
+  <si>
+    <t>MD. KHALEQUZZAMAN</t>
+  </si>
+  <si>
+    <t>Deputy Director, Engineering (Planning &amp; Development)</t>
+  </si>
+  <si>
+    <t>01914-754516</t>
+  </si>
+  <si>
+    <t>MD. ABDUL KHALEQUE</t>
+  </si>
+  <si>
+    <t>Assistant Director, Engineering (Planning &amp; Development)</t>
+  </si>
+  <si>
+    <t>Minhazuddin Ahmmed</t>
+  </si>
+  <si>
+    <t>Assistant Director (Planning and Development)</t>
+  </si>
+  <si>
+    <t>ahammad.mu@gmail.com</t>
+  </si>
+  <si>
+    <t>Asim Kumar Barman</t>
+  </si>
+  <si>
+    <t>Assistant Director(Planning &amp; Development)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Planning and Development Section</t>
+  </si>
+  <si>
+    <t>asimkb07@yahoo.com</t>
+  </si>
+  <si>
+    <t>Research Officer (Planning &amp; Development)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Planning &amp; Development</t>
+  </si>
+  <si>
+    <t>shahinbd.p5320@gmail.com</t>
+  </si>
+  <si>
+    <t>Md. Nurul Islam Chowdhury</t>
+  </si>
+  <si>
+    <t>Deputy Director (AQAU)</t>
+  </si>
+  <si>
+    <t>Planning and Development</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> islamchy16@gmail.com</t>
+  </si>
+  <si>
+    <t>Mahmud Hasan</t>
+  </si>
+  <si>
+    <t>Assistant Director (AQAU)</t>
+  </si>
+  <si>
+    <t>KAMRUN NAHAR</t>
+  </si>
+  <si>
+    <t>knd780709@gmail.com</t>
+  </si>
+  <si>
+    <t>DILRUBA AKTHER</t>
+  </si>
+  <si>
+    <t>Research Officer (AQAU)</t>
+  </si>
+  <si>
+    <t>druba75@gmail.com</t>
+  </si>
+  <si>
+    <t>MST. AYSHA SIDDIKA MOUSHUMI</t>
+  </si>
+  <si>
+    <t>ayshamoushumi@gmail.com</t>
+  </si>
+  <si>
+    <t>Professor Sirajul Islam Khan</t>
+  </si>
+  <si>
+    <t>Director (Finance and Procurement (SESIP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Finance and Procurement Wing</t>
+  </si>
+  <si>
+    <t>Dr. Farhana Begum</t>
+  </si>
+  <si>
+    <t>Dr. Prabir Kumar Bhattcharjee</t>
+  </si>
+  <si>
+    <t>Director(Training)</t>
+  </si>
+  <si>
+    <t>Md. Jahirul Alam</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Deputy Director (Training)</t>
+  </si>
+  <si>
+    <t>Mohammad Mazharul Haque Masud</t>
+  </si>
+  <si>
+    <t>Assistant Director (Training-1)</t>
+  </si>
+  <si>
+    <t>mazharulhuqmasud@gmail.com</t>
+  </si>
+  <si>
+    <t>kumarprabir88@yahoo.com</t>
+  </si>
+  <si>
+    <t>Md. Tanvir Hasan</t>
+  </si>
+  <si>
+    <t>Assistant Director (Training-2)</t>
+  </si>
+  <si>
+    <t>Assistant Director (Training-3)</t>
+  </si>
+  <si>
+    <t>Assistant Director (Training-4)</t>
+  </si>
+  <si>
+    <t>dshe.adtraining.2@gmail.com</t>
+  </si>
+  <si>
+    <t>Md. Anowarul Awal Khan</t>
+  </si>
+  <si>
+    <t>anowarbabu1410@gmail.com</t>
+  </si>
+  <si>
+    <t>Dr.Nihar Parveen</t>
+  </si>
+  <si>
+    <t>adtraining4.dshe@gmail.com</t>
+  </si>
+  <si>
+    <t>Professor Md. Amir Hossain</t>
+  </si>
+  <si>
+    <t>Director (Monitoring and Evaluation Wing)</t>
+  </si>
+  <si>
+    <t>Monitoring and Evaluation wing</t>
+  </si>
+  <si>
+    <t>director_mew_dshe@yahoo.com</t>
+  </si>
+  <si>
+    <t>Salina Zaman</t>
+  </si>
+  <si>
+    <t>Deputy Director (Monitoring and Evaluation)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> salina10639@gmail.com</t>
+  </si>
+  <si>
+    <t>LILUN NAHAR</t>
+  </si>
+  <si>
+    <t>Assistant Director(Monitoring and Evaluation)</t>
+  </si>
+  <si>
+    <t>lilun259@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 01718-668036</t>
+  </si>
+  <si>
+    <t>Mohosena Begum</t>
+  </si>
+  <si>
+    <t>mohosena78@gmail.com</t>
+  </si>
+  <si>
+    <t>০১৮১৮-৯০৪৯৫১</t>
   </si>
 </sst>
 </file>
@@ -5733,7 +6217,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -5782,12 +6266,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF999999"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5852,6 +6351,18 @@
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6149,8 +6660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="H60" sqref="H60"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6165,14 +6676,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
@@ -6314,7 +6825,7 @@
         <v>1716066888</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" ht="30">
+    <row r="9" spans="1:6" s="2" customFormat="1" ht="45">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -6348,7 +6859,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" ht="30">
+    <row r="11" spans="1:6" s="2" customFormat="1" ht="45">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -6368,7 +6879,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" ht="30">
+    <row r="12" spans="1:6" s="2" customFormat="1" ht="45">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -6388,7 +6899,7 @@
         <v>1747333384</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="2" customFormat="1" ht="30">
+    <row r="13" spans="1:6" s="2" customFormat="1" ht="45">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -6405,7 +6916,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="2" customFormat="1" ht="30">
+    <row r="14" spans="1:6" s="2" customFormat="1" ht="45">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -6425,7 +6936,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="2" customFormat="1" ht="30">
+    <row r="15" spans="1:6" s="2" customFormat="1" ht="45">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -6445,7 +6956,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="2" customFormat="1" ht="30">
+    <row r="16" spans="1:6" s="2" customFormat="1" ht="45">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -6465,7 +6976,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="2" customFormat="1" ht="30">
+    <row r="17" spans="1:6" s="2" customFormat="1" ht="45">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -6485,7 +6996,7 @@
         <v>1778380051</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="2" customFormat="1" ht="30">
+    <row r="18" spans="1:6" s="2" customFormat="1" ht="45">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -6505,7 +7016,7 @@
         <v>1713581397</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="2" customFormat="1" ht="30">
+    <row r="19" spans="1:6" s="2" customFormat="1" ht="45">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -6525,7 +7036,7 @@
         <v>1552343974</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="2" customFormat="1" ht="30">
+    <row r="20" spans="1:6" s="2" customFormat="1" ht="45">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -6545,7 +7056,7 @@
         <v>1676769036</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="2" customFormat="1" ht="30">
+    <row r="21" spans="1:6" s="2" customFormat="1" ht="45">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -6565,7 +7076,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="2" customFormat="1" ht="30">
+    <row r="22" spans="1:6" s="2" customFormat="1" ht="45">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -6585,7 +7096,7 @@
         <v>1731061760</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="2" customFormat="1" ht="30">
+    <row r="23" spans="1:6" s="2" customFormat="1" ht="45">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -6625,7 +7136,7 @@
         <v>1716505871</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="2" customFormat="1" ht="30">
+    <row r="25" spans="1:6" s="2" customFormat="1" ht="45">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -6685,7 +7196,7 @@
         <v>1715784765</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="2" customFormat="1" ht="30">
+    <row r="28" spans="1:6" s="2" customFormat="1" ht="45">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -6705,7 +7216,7 @@
         <v>1711353174</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="2" customFormat="1" ht="30">
+    <row r="29" spans="1:6" s="2" customFormat="1" ht="45">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -6725,7 +7236,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="2" customFormat="1" ht="30">
+    <row r="30" spans="1:6" s="2" customFormat="1" ht="45">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -6745,7 +7256,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="2" customFormat="1" ht="30">
+    <row r="31" spans="1:6" s="2" customFormat="1" ht="45">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -6765,7 +7276,7 @@
         <v>1912553070</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="2" customFormat="1" ht="30">
+    <row r="32" spans="1:6" s="2" customFormat="1" ht="45">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -6783,7 +7294,7 @@
       </c>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6" s="2" customFormat="1" ht="30">
+    <row r="33" spans="1:6" s="2" customFormat="1" ht="45">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -6800,7 +7311,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="2" customFormat="1" ht="30">
+    <row r="34" spans="1:6" s="2" customFormat="1" ht="45">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -6837,7 +7348,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="2" customFormat="1" ht="30">
+    <row r="36" spans="1:6" s="2" customFormat="1" ht="45">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -6911,7 +7422,7 @@
         <v>1711015707</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="2" customFormat="1" ht="30">
+    <row r="40" spans="1:6" s="2" customFormat="1" ht="45">
       <c r="A40" s="2">
         <v>38</v>
       </c>
@@ -6931,7 +7442,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="2" customFormat="1" ht="30">
+    <row r="41" spans="1:6" s="2" customFormat="1" ht="45">
       <c r="A41" s="2">
         <v>39</v>
       </c>
@@ -6948,7 +7459,7 @@
         <v>1710052965</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="2" customFormat="1" ht="30">
+    <row r="42" spans="1:6" s="2" customFormat="1" ht="45">
       <c r="A42" s="2">
         <v>40</v>
       </c>
@@ -6968,7 +7479,7 @@
         <v>1764611292</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="2" customFormat="1" ht="30">
+    <row r="43" spans="1:6" s="2" customFormat="1" ht="45">
       <c r="A43" s="2">
         <v>41</v>
       </c>
@@ -6988,7 +7499,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="2" customFormat="1" ht="30">
+    <row r="44" spans="1:6" s="2" customFormat="1" ht="45">
       <c r="A44" s="2">
         <v>42</v>
       </c>
@@ -7008,7 +7519,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="2" customFormat="1" ht="30">
+    <row r="45" spans="1:6" s="2" customFormat="1" ht="45">
       <c r="A45" s="2">
         <v>43</v>
       </c>
@@ -7028,7 +7539,7 @@
         <v>1798596290</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="2" customFormat="1" ht="30">
+    <row r="46" spans="1:6" s="2" customFormat="1" ht="45">
       <c r="A46" s="2">
         <v>44</v>
       </c>
@@ -7048,7 +7559,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="2" customFormat="1" ht="30">
+    <row r="47" spans="1:6" s="2" customFormat="1" ht="45">
       <c r="A47" s="2">
         <v>45</v>
       </c>
@@ -7128,7 +7639,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="51" spans="1:6" s="2" customFormat="1" ht="30">
+    <row r="51" spans="1:6" s="2" customFormat="1" ht="45">
       <c r="A51" s="2">
         <v>49</v>
       </c>
@@ -7148,7 +7659,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="52" spans="1:6" s="2" customFormat="1" ht="30">
+    <row r="52" spans="1:6" s="2" customFormat="1" ht="45">
       <c r="A52" s="2">
         <v>50</v>
       </c>
@@ -7168,7 +7679,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="53" spans="1:6" s="2" customFormat="1" ht="30">
+    <row r="53" spans="1:6" s="2" customFormat="1" ht="45">
       <c r="A53" s="2">
         <v>51</v>
       </c>
@@ -7188,7 +7699,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="54" spans="1:6" s="2" customFormat="1" ht="30">
+    <row r="54" spans="1:6" s="2" customFormat="1" ht="45">
       <c r="A54" s="2">
         <v>52</v>
       </c>
@@ -7208,7 +7719,7 @@
         <v>1732255144</v>
       </c>
     </row>
-    <row r="55" spans="1:6" s="2" customFormat="1" ht="30">
+    <row r="55" spans="1:6" s="2" customFormat="1" ht="45">
       <c r="A55" s="2">
         <v>53</v>
       </c>
@@ -7228,7 +7739,7 @@
         <v>1726224802</v>
       </c>
     </row>
-    <row r="56" spans="1:6" s="2" customFormat="1" ht="30">
+    <row r="56" spans="1:6" s="2" customFormat="1" ht="45">
       <c r="A56" s="2">
         <v>54</v>
       </c>
@@ -7248,7 +7759,7 @@
         <v>1552373357</v>
       </c>
     </row>
-    <row r="57" spans="1:6" s="2" customFormat="1" ht="30">
+    <row r="57" spans="1:6" s="2" customFormat="1" ht="45">
       <c r="A57" s="2">
         <v>55</v>
       </c>
@@ -7266,7 +7777,7 @@
       </c>
       <c r="F57" s="3"/>
     </row>
-    <row r="58" spans="1:6" s="2" customFormat="1" ht="30">
+    <row r="58" spans="1:6" s="2" customFormat="1" ht="45">
       <c r="A58" s="2">
         <v>56</v>
       </c>
@@ -7286,7 +7797,7 @@
         <v>1711904468</v>
       </c>
     </row>
-    <row r="59" spans="1:6" s="2" customFormat="1" ht="30">
+    <row r="59" spans="1:6" s="2" customFormat="1" ht="45">
       <c r="A59" s="2">
         <v>57</v>
       </c>
@@ -7526,10 +8037,626 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D2DA89-2D91-4E66-BE4F-EE783D5328E7}">
+  <dimension ref="A1:F29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="16"/>
+    <col min="2" max="2" width="23.42578125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="16" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="25.5">
+      <c r="A1" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1482</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>1389</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>1390</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1818254637</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>1392</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>1393</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1715567227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>1396</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>1397</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>1400</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>1401</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>1402</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>1405</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>1406</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1552445118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="51">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>1407</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>1410</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>1413</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>1414</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>1417</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F10" s="15">
+        <v>1711478867</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="25.5">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>1420</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>1421</v>
+      </c>
+      <c r="F11" s="15">
+        <v>1711968452</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="38.25">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>1423</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>1406</v>
+      </c>
+      <c r="F12" s="15">
+        <v>1552445118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="25.5">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>1425</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>1426</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="25.5">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>1429</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>1430</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="25.5">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="25.5">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>1437</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>1438</v>
+      </c>
+      <c r="F16" s="15">
+        <v>1713118860</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="25.5">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>1441</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="51">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>1444</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>1445</v>
+      </c>
+      <c r="F18" s="15">
+        <v>1716054317</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="25.5">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>1447</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>1448</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="51">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="15" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="38.25">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>1454</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>1455</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="38.25">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>1458</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="15" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="38.25">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>1461</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>1462</v>
+      </c>
+      <c r="F23" s="15">
+        <v>1712298050</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="51">
+      <c r="A24" s="2">
+        <v>22</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>1464</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>1465</v>
+      </c>
+      <c r="F24" s="15">
+        <v>1517262622</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="25.5">
+      <c r="A25" s="2">
+        <v>23</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>1467</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>1468</v>
+      </c>
+      <c r="F25" s="15">
+        <v>1913008889</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="38.25">
+      <c r="A26" s="2">
+        <v>24</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>1471</v>
+      </c>
+      <c r="F26" s="15">
+        <v>1717230368</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="25.5">
+      <c r="A27" s="2">
+        <v>25</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>1474</v>
+      </c>
+      <c r="F27" s="15">
+        <v>181754015</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="51">
+      <c r="A28" s="2">
+        <v>26</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>1477</v>
+      </c>
+      <c r="F28" s="15">
+        <v>1558197982</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="25.5">
+      <c r="A29" s="2">
+        <v>27</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>1479</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>1480</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" display="md@htpbd.org.bd,adl.hosne@gmail.com" xr:uid="{79A8A09C-4F40-4B04-8706-F58A65A9C373}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{22A1055C-E174-4DA6-86BE-1F17B4FD42F9}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{FFD31228-2C80-4467-9C4A-21F8B4ACE0E3}"/>
+    <hyperlink ref="E6" r:id="rId4" xr:uid="{297C6727-3869-42B2-B137-8A3500A47488}"/>
+    <hyperlink ref="E7" r:id="rId5" xr:uid="{5D6C35B6-6808-4C0A-985F-90C344547FEB}"/>
+    <hyperlink ref="E8" r:id="rId6" xr:uid="{714EDEA7-CF05-46D6-8567-FE7FF33A6A69}"/>
+    <hyperlink ref="E11" r:id="rId7" xr:uid="{EC2F11B7-6D39-4DD4-B599-FC3773461285}"/>
+    <hyperlink ref="E12" r:id="rId8" xr:uid="{34916DF4-CDAC-4EE4-A6E6-1F5FB9BA32B7}"/>
+    <hyperlink ref="E13" r:id="rId9" xr:uid="{670A33AC-32B3-4AF3-9A76-86D5C66D960F}"/>
+    <hyperlink ref="E14" r:id="rId10" xr:uid="{612068B7-C205-48B9-92FA-B11D9F65D949}"/>
+    <hyperlink ref="E15" r:id="rId11" xr:uid="{C7D57724-AF50-4B77-92A6-41D999008474}"/>
+    <hyperlink ref="E16" r:id="rId12" xr:uid="{DE7756DF-6948-4C03-A87D-B1B31F876299}"/>
+    <hyperlink ref="E17" r:id="rId13" xr:uid="{954CB966-8D9B-4573-939C-F8785E1FCE98}"/>
+    <hyperlink ref="E18" r:id="rId14" xr:uid="{E5703B84-1BC1-49F5-B9CA-943BB5293E55}"/>
+    <hyperlink ref="E19" r:id="rId15" xr:uid="{78F57403-0BBB-4D02-9B98-4C42A42A7A53}"/>
+    <hyperlink ref="E21" r:id="rId16" xr:uid="{49AEC717-A68C-4461-AFFF-EF02AF2872FD}"/>
+    <hyperlink ref="E23" r:id="rId17" xr:uid="{B2991DD5-3EC3-4838-B315-74ECB0F8ADD4}"/>
+    <hyperlink ref="E24" r:id="rId18" xr:uid="{FB6C098B-0D05-4C76-8D50-87268B1BF21F}"/>
+    <hyperlink ref="E25" r:id="rId19" xr:uid="{FF8171CA-B59A-47C6-BE1F-A93516D6C41A}"/>
+    <hyperlink ref="E27" r:id="rId20" xr:uid="{260E78A3-C22B-47D5-8DD5-FCA1A8732CB9}"/>
+    <hyperlink ref="E29" r:id="rId21" xr:uid="{F0DE0A84-C9D9-4EC2-9D23-86DEFAB8D0C9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0566EEEB-7C01-455D-9C56-2211B8522E7E}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
@@ -7543,14 +8670,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.5">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>1483</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="17" t="s">
@@ -8053,11 +9180,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13511AC9-EDD9-434B-912C-BDA7C318888D}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G29" sqref="G29:G30"/>
     </sheetView>
   </sheetViews>
@@ -8071,14 +9198,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.5">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>1523</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="17" t="s">
@@ -8797,7 +9924,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF19544-DBBC-4EE4-8CDE-FB2F731FFCCB}">
   <dimension ref="A1:F51"/>
   <sheetViews>
@@ -8816,14 +9943,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.5">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>1640</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="17" t="s">
@@ -9879,12 +11006,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B350BBE0-6406-4223-97B9-EABBA0BC7373}">
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9896,14 +11023,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="25.5">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>1778</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
       <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:7">
@@ -10232,11 +11359,1104 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4005324F-03A2-4082-9666-10E013A96C8D}">
+  <dimension ref="A1:F54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="34.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="25.5">
+      <c r="A1" s="29" t="s">
+        <v>1870</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30">
+      <c r="A3" s="17">
+        <v>1</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>1871</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>1872</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30">
+      <c r="A4" s="17">
+        <v>2</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>1874</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>1875</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>1877</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>1876</v>
+      </c>
+      <c r="F4" s="19">
+        <v>9563439</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="45">
+      <c r="A5" s="17">
+        <v>3</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>1878</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>1879</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>1880</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="19">
+        <v>9553607</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30">
+      <c r="A6" s="17">
+        <v>4</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>1881</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>1882</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>1883</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>1884</v>
+      </c>
+      <c r="F6" s="19">
+        <v>1723599353</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30">
+      <c r="A7" s="17">
+        <v>5</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>1886</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>1887</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>1888</v>
+      </c>
+      <c r="F7" s="19">
+        <v>1720124222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30">
+      <c r="A8" s="17">
+        <v>6</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>1889</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>404</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>1890</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>1891</v>
+      </c>
+      <c r="F8" s="19">
+        <v>1716074698</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="45">
+      <c r="A9" s="17">
+        <v>7</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>1892</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>508</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>1880</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>1893</v>
+      </c>
+      <c r="F9" s="19">
+        <v>1716747834</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30">
+      <c r="A10" s="17">
+        <v>8</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>1895</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>1896</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>1897</v>
+      </c>
+      <c r="F10" s="19">
+        <v>9558505</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30">
+      <c r="A11" s="17">
+        <v>9</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>1898</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>1899</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>1900</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F11" s="19">
+        <v>1716800303</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="45">
+      <c r="A12" s="17">
+        <v>10</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>1902</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>1903</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>1904</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>1905</v>
+      </c>
+      <c r="F12" s="19">
+        <v>1628406564</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30">
+      <c r="A13" s="17">
+        <v>11</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>1906</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>1907</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>1896</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="19" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30">
+      <c r="A14" s="17">
+        <v>12</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>1909</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>1910</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>1911</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>1912</v>
+      </c>
+      <c r="F14" s="19">
+        <v>1711272470</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30.75" thickBot="1">
+      <c r="A15" s="17">
+        <v>13</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>1913</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>1914</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>1911</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>1915</v>
+      </c>
+      <c r="F15" s="19">
+        <v>1713336191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30.75" thickBot="1">
+      <c r="A16" s="17">
+        <v>14</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>1916</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>1917</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>1911</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>1918</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="45">
+      <c r="A17" s="17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>1920</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>1917</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>1911</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>1921</v>
+      </c>
+      <c r="F17" s="19">
+        <v>1718902820</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="45">
+      <c r="A18" s="17">
+        <v>16</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>1922</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>1923</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>1924</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>1925</v>
+      </c>
+      <c r="F18" s="19">
+        <v>9556227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30">
+      <c r="A19" s="17">
+        <v>17</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>1926</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>1927</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>1928</v>
+      </c>
+      <c r="E19" s="17"/>
+      <c r="F19" s="19" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="45">
+      <c r="A20" s="17">
+        <v>18</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>1930</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>577</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>1931</v>
+      </c>
+      <c r="E20" s="17"/>
+      <c r="F20" s="27" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="17">
+        <v>19</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>1933</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>553</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>1931</v>
+      </c>
+      <c r="E21" s="17"/>
+      <c r="F21" s="19">
+        <v>1711704725</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="30">
+      <c r="A22" s="17">
+        <v>20</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>553</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>1931</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>1935</v>
+      </c>
+      <c r="F22" s="19">
+        <v>1712776467</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A23" s="17">
+        <v>21</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>1936</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>553</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>1937</v>
+      </c>
+      <c r="E23" s="17"/>
+      <c r="F23" s="19">
+        <v>1718081747</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="30.75" thickBot="1">
+      <c r="A24" s="17">
+        <v>22</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>1938</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>1939</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>1940</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>1941</v>
+      </c>
+      <c r="F24" s="26">
+        <v>1712584669</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="30.75" thickBot="1">
+      <c r="A25" s="17">
+        <v>23</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>1942</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>1943</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>1940</v>
+      </c>
+      <c r="E25" s="17"/>
+      <c r="F25" s="26">
+        <v>1716964075</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="30.75" thickBot="1">
+      <c r="A26" s="17">
+        <v>24</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>1944</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>1945</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>1946</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>1947</v>
+      </c>
+      <c r="F26" s="19">
+        <v>1732277736</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="45">
+      <c r="A27" s="17">
+        <v>25</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>1948</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>1949</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>1950</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>1951</v>
+      </c>
+      <c r="F27" s="19">
+        <v>1716984133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="30">
+      <c r="A28" s="17">
+        <v>26</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>1952</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>1953</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>1940</v>
+      </c>
+      <c r="E28" s="17"/>
+      <c r="F28" s="19" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="30">
+      <c r="A29" s="17">
+        <v>27</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>1955</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>1956</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>1940</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>1957</v>
+      </c>
+      <c r="F29" s="19">
+        <v>1717063239</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="45">
+      <c r="A30" s="17">
+        <v>28</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>1958</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>1959</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>1960</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>1961</v>
+      </c>
+      <c r="F30" s="19">
+        <v>9556046</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="45">
+      <c r="A31" s="17">
+        <v>29</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>1962</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>1963</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>1960</v>
+      </c>
+      <c r="E31" s="17"/>
+      <c r="F31" s="19">
+        <v>1715192472</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="45">
+      <c r="A32" s="17">
+        <v>30</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>1964</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>1965</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>1960</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>1966</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="45">
+      <c r="A33" s="17">
+        <v>31</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>1968</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>1969</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>1960</v>
+      </c>
+      <c r="E33" s="17"/>
+      <c r="F33" s="19" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="45">
+      <c r="A34" s="17">
+        <v>32</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>1971</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>1972</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>1960</v>
+      </c>
+      <c r="E34" s="17"/>
+      <c r="F34" s="19">
+        <v>1552387398</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="45">
+      <c r="A35" s="17">
+        <v>33</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>1973</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>1974</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>1960</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>1975</v>
+      </c>
+      <c r="F35" s="19">
+        <v>1818330250</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="45">
+      <c r="A36" s="17">
+        <v>34</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>1976</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>1977</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>1978</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>1979</v>
+      </c>
+      <c r="F36" s="19">
+        <v>1737251104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="45">
+      <c r="A37" s="17">
+        <v>35</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>1863</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>1980</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>1981</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>1982</v>
+      </c>
+      <c r="F37" s="19">
+        <v>1916619346</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="45">
+      <c r="A38" s="17">
+        <v>36</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>1983</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>1984</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>1985</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>1986</v>
+      </c>
+      <c r="F38" s="19">
+        <v>1938195725</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="30">
+      <c r="A39" s="17">
+        <v>37</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>1987</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>1988</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>1978</v>
+      </c>
+      <c r="E39" s="17"/>
+      <c r="F39" s="19">
+        <v>1911055581</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="30">
+      <c r="A40" s="17">
+        <v>38</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>1989</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>1988</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>1978</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>1990</v>
+      </c>
+      <c r="F40" s="19">
+        <v>1552423469</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="30">
+      <c r="A41" s="17">
+        <v>39</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>1991</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>1992</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>1978</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>1993</v>
+      </c>
+      <c r="F41" s="19">
+        <v>1813848502</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="30">
+      <c r="A42" s="17">
+        <v>40</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>1994</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>1992</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>1978</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>1995</v>
+      </c>
+      <c r="F42" s="19">
+        <v>1822002299</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="30">
+      <c r="A43" s="17">
+        <v>41</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>1996</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>1997</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>1998</v>
+      </c>
+      <c r="E43" s="17"/>
+      <c r="F43" s="19">
+        <v>1711001989</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="17">
+        <v>42</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>1999</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>553</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>1998</v>
+      </c>
+      <c r="E44" s="17"/>
+      <c r="F44" s="19">
+        <v>1711354474</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="30">
+      <c r="A45" s="17">
+        <v>43</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>2000</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>793</v>
+      </c>
+      <c r="E45" s="18" t="s">
+        <v>2007</v>
+      </c>
+      <c r="F45" s="19">
+        <v>1716508155</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="30">
+      <c r="A46" s="17">
+        <v>44</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>2002</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>2003</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>793</v>
+      </c>
+      <c r="E46" s="17"/>
+      <c r="F46" s="19">
+        <v>1717285829</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="30">
+      <c r="A47" s="17">
+        <v>45</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>2004</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>2005</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>793</v>
+      </c>
+      <c r="E47" s="18" t="s">
+        <v>2006</v>
+      </c>
+      <c r="F47" s="19">
+        <v>9550667</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="30">
+      <c r="A48" s="17">
+        <v>46</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>2008</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>2009</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>793</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>2012</v>
+      </c>
+      <c r="F48" s="19">
+        <v>9586584</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="30">
+      <c r="A49" s="17">
+        <v>47</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>2010</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>793</v>
+      </c>
+      <c r="E49" s="18" t="s">
+        <v>2014</v>
+      </c>
+      <c r="F49" s="19">
+        <v>1717144682</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="30">
+      <c r="A50" s="17">
+        <v>48</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>2015</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>2011</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>793</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>2016</v>
+      </c>
+      <c r="F50" s="19">
+        <v>1711311346</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="30">
+      <c r="A51" s="17">
+        <v>49</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>2017</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>2018</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>2019</v>
+      </c>
+      <c r="E51" s="18" t="s">
+        <v>2020</v>
+      </c>
+      <c r="F51" s="19">
+        <v>9555130</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="45">
+      <c r="A52" s="17">
+        <v>50</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>2021</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>2022</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>2019</v>
+      </c>
+      <c r="E52" s="17" t="s">
+        <v>2023</v>
+      </c>
+      <c r="F52" s="19">
+        <v>9574104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="45">
+      <c r="A53" s="17">
+        <v>51</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>2024</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>2025</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>2019</v>
+      </c>
+      <c r="E53" s="18" t="s">
+        <v>2026</v>
+      </c>
+      <c r="F53" s="17" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="30">
+      <c r="A54" s="17">
+        <v>52</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>580</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>2019</v>
+      </c>
+      <c r="E54" s="18" t="s">
+        <v>2029</v>
+      </c>
+      <c r="F54" s="23" t="s">
+        <v>2030</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{2D8BEEA7-52F5-4EF9-B58F-A7848B731A21}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{F7D55C4B-2B24-4F35-BFCF-14DF68BCEB32}"/>
+    <hyperlink ref="E6" r:id="rId3" xr:uid="{99D4472D-7DC0-4EC3-870E-381DE60D22F0}"/>
+    <hyperlink ref="E7" r:id="rId4" xr:uid="{D0762A7D-AE5D-4E26-BEE4-7434C3B772BB}"/>
+    <hyperlink ref="E8" r:id="rId5" xr:uid="{4012DA10-E4BB-4581-A119-EB7E971BBC42}"/>
+    <hyperlink ref="E10" r:id="rId6" xr:uid="{D2064AEA-65A8-48AA-8A0A-AF004FE2F76D}"/>
+    <hyperlink ref="E11" r:id="rId7" xr:uid="{26751FD1-CC78-4C4F-8BCA-9B9C39354B4B}"/>
+    <hyperlink ref="E14" r:id="rId8" xr:uid="{E6DB4199-9897-43B9-96E0-D3699A901792}"/>
+    <hyperlink ref="E15" r:id="rId9" xr:uid="{34132AF6-AEC7-4286-A789-B594079624B5}"/>
+    <hyperlink ref="E18" r:id="rId10" xr:uid="{4CB66A0A-0662-43FD-ACEB-201D3736D643}"/>
+    <hyperlink ref="E22" r:id="rId11" xr:uid="{E0DF7D62-915A-423D-BBEB-77AC8E19C2D5}"/>
+    <hyperlink ref="E35" r:id="rId12" xr:uid="{6D346B2B-039C-4919-A92F-37F0769796BA}"/>
+    <hyperlink ref="E36" r:id="rId13" xr:uid="{A0C583E0-0832-4C6B-B966-8128875D83D7}"/>
+    <hyperlink ref="E37" r:id="rId14" xr:uid="{22075457-7184-437B-9965-8770C70463E8}"/>
+    <hyperlink ref="E40" r:id="rId15" xr:uid="{B716B4F7-E6F8-48D9-9443-D09B5C868ABD}"/>
+    <hyperlink ref="E41" r:id="rId16" xr:uid="{A120C3F2-D502-4922-8FF5-4007EE2551BF}"/>
+    <hyperlink ref="E42" r:id="rId17" xr:uid="{5FE62EA6-2DEE-48CD-B582-70160B3B4E42}"/>
+    <hyperlink ref="E47" r:id="rId18" xr:uid="{46F2BE88-623B-4B14-A8DC-694488F797A5}"/>
+    <hyperlink ref="E45" r:id="rId19" xr:uid="{3CB95AFA-BCD9-4187-8AB9-1639BDA4DEEB}"/>
+    <hyperlink ref="E48" r:id="rId20" xr:uid="{45827044-4CFC-48B7-AB6D-B09F62F6B368}"/>
+    <hyperlink ref="E49" r:id="rId21" xr:uid="{AE0C263B-9D02-472C-830F-81CD8FEB8C32}"/>
+    <hyperlink ref="E50" r:id="rId22" xr:uid="{445EBF4A-95C3-4874-8AD4-01433698428B}"/>
+    <hyperlink ref="E51" r:id="rId23" xr:uid="{FEBA20E4-BCD3-469E-99E5-6D0CE130F5B0}"/>
+    <hyperlink ref="E53" r:id="rId24" xr:uid="{00C87DEA-59EB-45A2-BB08-7383F7139297}"/>
+    <hyperlink ref="E54" r:id="rId25" xr:uid="{356E976A-B639-45FC-B0B9-6664D56F94C4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId26"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5AA099-9F4D-4E1D-8EFE-F2723C89BCFC}">
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10251,14 +12471,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="28" t="s">
         <v>192</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
@@ -10970,7 +13190,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662A2A83-B6E2-40A7-A23B-D8E628DEF110}">
   <dimension ref="A1:F18"/>
   <sheetViews>
@@ -10988,14 +13208,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.5">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>1825</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="17" t="s">
@@ -11361,12 +13581,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E355C957-C9F2-4240-BF7D-3223C10FC84E}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11379,14 +13599,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="28" t="s">
         <v>275</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
@@ -11688,7 +13908,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="2" customFormat="1" ht="45">
+    <row r="17" spans="1:6" s="2" customFormat="1" ht="60">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -12384,7 +14604,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB9FE0DC-0546-4303-A31D-84FCDB11FAD1}">
   <dimension ref="A1:F52"/>
   <sheetViews>
@@ -12402,14 +14622,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="28" t="s">
         <v>412</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
@@ -13332,7 +15552,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20679603-B946-4BC4-B9FE-5A6CB3B25D6C}">
   <dimension ref="A1:F89"/>
   <sheetViews>
@@ -13350,14 +15570,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.5">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="28" t="s">
         <v>549</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
@@ -13419,7 +15639,7 @@
         <v>1936993651</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="45">
+    <row r="5" spans="1:6" ht="30">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -15088,7 +17308,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{825B2715-03B3-43B9-B5A7-95117B70CB41}">
   <dimension ref="A1:F42"/>
   <sheetViews>
@@ -15106,14 +17326,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.5">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="28" t="s">
         <v>739</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
@@ -15946,12 +18166,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA97054-2957-4A5E-85E9-9ED43C6A2756}">
   <dimension ref="A1:F186"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15964,14 +18184,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.5">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="28" t="s">
         <v>873</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
@@ -17780,7 +20000,7 @@
       <c r="B92" s="8" t="s">
         <v>1153</v>
       </c>
-      <c r="C92" s="26" t="s">
+      <c r="C92" s="30" t="s">
         <v>1154</v>
       </c>
       <c r="D92" s="8" t="s">
@@ -17800,7 +20020,7 @@
       <c r="B93" s="8" t="s">
         <v>1156</v>
       </c>
-      <c r="C93" s="27"/>
+      <c r="C93" s="31"/>
       <c r="D93" s="8" t="s">
         <v>1175</v>
       </c>
@@ -19698,620 +21918,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId18"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D2DA89-2D91-4E66-BE4F-EE783D5328E7}">
-  <dimension ref="A1:F29"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="16"/>
-    <col min="2" max="2" width="23.42578125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="16" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" style="16" customWidth="1"/>
-    <col min="5" max="5" width="28.7109375" style="16" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" style="16" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="25.5">
-      <c r="A1" s="24" t="s">
-        <v>1869</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>1482</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1387</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1388</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>1389</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>1390</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1818254637</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>1391</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>1392</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>1393</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1715567227</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>1394</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>1395</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>1396</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>1397</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>1398</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>1399</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>1400</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>1401</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>1402</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>1403</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>1404</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>1405</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>1406</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1552445118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="51">
-      <c r="A8" s="2">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>1408</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>1409</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>1407</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>1410</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="30">
-      <c r="A9" s="2">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>1412</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>1409</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>1413</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>1414</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="30">
-      <c r="A10" s="2">
-        <v>8</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>1416</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>1409</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>1417</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>1418</v>
-      </c>
-      <c r="F10" s="15">
-        <v>1711478867</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="25.5">
-      <c r="A11" s="2">
-        <v>9</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>1419</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>1409</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>1420</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>1421</v>
-      </c>
-      <c r="F11" s="15">
-        <v>1711968452</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="38.25">
-      <c r="A12" s="2">
-        <v>10</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>1422</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>1409</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>1423</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>1406</v>
-      </c>
-      <c r="F12" s="15">
-        <v>1552445118</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="25.5">
-      <c r="A13" s="2">
-        <v>11</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>1424</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>1409</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>1425</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>1426</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>1427</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="25.5">
-      <c r="A14" s="2">
-        <v>12</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>1428</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>1409</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>1429</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>1430</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>1431</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="25.5">
-      <c r="A15" s="2">
-        <v>13</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>1432</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>1409</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>1433</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>1434</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="25.5">
-      <c r="A16" s="2">
-        <v>14</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>1436</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>1409</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>1437</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>1438</v>
-      </c>
-      <c r="F16" s="15">
-        <v>1713118860</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="25.5">
-      <c r="A17" s="2">
-        <v>15</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>1439</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>1409</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>1440</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>1441</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>1442</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="51">
-      <c r="A18" s="2">
-        <v>16</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>1443</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>1409</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>1444</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>1445</v>
-      </c>
-      <c r="F18" s="15">
-        <v>1716054317</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="25.5">
-      <c r="A19" s="2">
-        <v>17</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>1446</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>1409</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>1447</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>1448</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="51">
-      <c r="A20" s="2">
-        <v>18</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>1450</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>1409</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>1451</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="15" t="s">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="38.25">
-      <c r="A21" s="2">
-        <v>19</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>1453</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>1409</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>1454</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>1455</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>1456</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="38.25">
-      <c r="A22" s="2">
-        <v>20</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>1457</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>1409</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>1458</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="15" t="s">
-        <v>1459</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="38.25">
-      <c r="A23" s="2">
-        <v>21</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>1460</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>1409</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>1461</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>1462</v>
-      </c>
-      <c r="F23" s="15">
-        <v>1712298050</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="51">
-      <c r="A24" s="2">
-        <v>22</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>1463</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>1409</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>1464</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>1465</v>
-      </c>
-      <c r="F24" s="15">
-        <v>1517262622</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="25.5">
-      <c r="A25" s="2">
-        <v>23</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>1466</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>1409</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>1467</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>1468</v>
-      </c>
-      <c r="F25" s="15">
-        <v>1913008889</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="38.25">
-      <c r="A26" s="2">
-        <v>24</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>1469</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>1409</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>1470</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>1471</v>
-      </c>
-      <c r="F26" s="15">
-        <v>1717230368</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="25.5">
-      <c r="A27" s="2">
-        <v>25</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>1472</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>1409</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>1473</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>1474</v>
-      </c>
-      <c r="F27" s="15">
-        <v>181754015</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="51">
-      <c r="A28" s="2">
-        <v>26</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>1475</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>1409</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>1477</v>
-      </c>
-      <c r="F28" s="15">
-        <v>1558197982</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="25.5">
-      <c r="A29" s="2">
-        <v>27</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>1478</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>1409</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>1479</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>1480</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>1481</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" display="md@htpbd.org.bd,adl.hosne@gmail.com" xr:uid="{79A8A09C-4F40-4B04-8706-F58A65A9C373}"/>
-    <hyperlink ref="E4" r:id="rId2" xr:uid="{22A1055C-E174-4DA6-86BE-1F17B4FD42F9}"/>
-    <hyperlink ref="E5" r:id="rId3" xr:uid="{FFD31228-2C80-4467-9C4A-21F8B4ACE0E3}"/>
-    <hyperlink ref="E6" r:id="rId4" xr:uid="{297C6727-3869-42B2-B137-8A3500A47488}"/>
-    <hyperlink ref="E7" r:id="rId5" xr:uid="{5D6C35B6-6808-4C0A-985F-90C344547FEB}"/>
-    <hyperlink ref="E8" r:id="rId6" xr:uid="{714EDEA7-CF05-46D6-8567-FE7FF33A6A69}"/>
-    <hyperlink ref="E11" r:id="rId7" xr:uid="{EC2F11B7-6D39-4DD4-B599-FC3773461285}"/>
-    <hyperlink ref="E12" r:id="rId8" xr:uid="{34916DF4-CDAC-4EE4-A6E6-1F5FB9BA32B7}"/>
-    <hyperlink ref="E13" r:id="rId9" xr:uid="{670A33AC-32B3-4AF3-9A76-86D5C66D960F}"/>
-    <hyperlink ref="E14" r:id="rId10" xr:uid="{612068B7-C205-48B9-92FA-B11D9F65D949}"/>
-    <hyperlink ref="E15" r:id="rId11" xr:uid="{C7D57724-AF50-4B77-92A6-41D999008474}"/>
-    <hyperlink ref="E16" r:id="rId12" xr:uid="{DE7756DF-6948-4C03-A87D-B1B31F876299}"/>
-    <hyperlink ref="E17" r:id="rId13" xr:uid="{954CB966-8D9B-4573-939C-F8785E1FCE98}"/>
-    <hyperlink ref="E18" r:id="rId14" xr:uid="{E5703B84-1BC1-49F5-B9CA-943BB5293E55}"/>
-    <hyperlink ref="E19" r:id="rId15" xr:uid="{78F57403-0BBB-4D02-9B98-4C42A42A7A53}"/>
-    <hyperlink ref="E21" r:id="rId16" xr:uid="{49AEC717-A68C-4461-AFFF-EF02AF2872FD}"/>
-    <hyperlink ref="E23" r:id="rId17" xr:uid="{B2991DD5-3EC3-4838-B315-74ECB0F8ADD4}"/>
-    <hyperlink ref="E24" r:id="rId18" xr:uid="{FB6C098B-0D05-4C76-8D50-87268B1BF21F}"/>
-    <hyperlink ref="E25" r:id="rId19" xr:uid="{FF8171CA-B59A-47C6-BE1F-A93516D6C41A}"/>
-    <hyperlink ref="E27" r:id="rId20" xr:uid="{260E78A3-C22B-47D5-8DD5-FCA1A8732CB9}"/>
-    <hyperlink ref="E29" r:id="rId21" xr:uid="{F0DE0A84-C9D9-4EC2-9D23-86DEFAB8D0C9}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Socheton/Contact/Contact_List.xlsx
+++ b/Socheton/Contact/Contact_List.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93446EC9-B643-4079-AEE9-B0635BE90B53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F9EF6C-FEAB-4BC0-8B5A-6F941BB52348}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SHED" sheetId="1" r:id="rId1"/>
@@ -6388,6 +6388,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6398,12 +6404,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6705,14 +6705,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
@@ -8069,8 +8069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D2DA89-2D91-4E66-BE4F-EE783D5328E7}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8085,14 +8085,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.5">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>1866</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
@@ -8367,7 +8367,7 @@
       <c r="D15" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="29" t="s">
         <v>1432</v>
       </c>
       <c r="F15" s="15" t="s">
@@ -8699,14 +8699,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.5">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>1480</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="17" t="s">
@@ -9227,14 +9227,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.5">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>1520</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="17" t="s">
@@ -9972,14 +9972,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.5">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>1637</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="17" t="s">
@@ -11052,14 +11052,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="25.5">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>1775</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
       <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:7">
@@ -11405,14 +11405,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.5">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>1867</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="17" t="s">
@@ -11565,7 +11565,7 @@
       <c r="D9" s="17" t="s">
         <v>1877</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="30" t="s">
         <v>1890</v>
       </c>
       <c r="F9" s="19">
@@ -11605,7 +11605,7 @@
       <c r="D11" s="17" t="s">
         <v>1897</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="29" t="s">
         <v>1898</v>
       </c>
       <c r="F11" s="19">
@@ -11855,7 +11855,7 @@
       <c r="D24" s="17" t="s">
         <v>1937</v>
       </c>
-      <c r="E24" s="34" t="s">
+      <c r="E24" s="30" t="s">
         <v>1938</v>
       </c>
       <c r="F24" s="26">
@@ -12105,7 +12105,7 @@
       <c r="D37" s="17" t="s">
         <v>1978</v>
       </c>
-      <c r="E37" s="33" t="s">
+      <c r="E37" s="29" t="s">
         <v>1979</v>
       </c>
       <c r="F37" s="19">
@@ -12500,14 +12500,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
@@ -13237,14 +13237,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.5">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>1822</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="17" t="s">
@@ -13437,7 +13437,7 @@
       <c r="D11" s="17" t="s">
         <v>1822</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="29" t="s">
         <v>1845</v>
       </c>
       <c r="F11" s="19" t="s">
@@ -13477,7 +13477,7 @@
       <c r="D13" s="17" t="s">
         <v>1822</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="29" t="s">
         <v>1850</v>
       </c>
       <c r="F13" s="19">
@@ -13628,14 +13628,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>275</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
@@ -14651,14 +14651,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>412</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
@@ -15599,14 +15599,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.5">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>549</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
@@ -17355,14 +17355,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.5">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>739</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
@@ -17457,7 +17457,7 @@
       <c r="D6" s="2" t="s">
         <v>747</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="29" t="s">
         <v>752</v>
       </c>
       <c r="F6" s="3" t="s">
@@ -18199,8 +18199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA97054-2957-4A5E-85E9-9ED43C6A2756}">
   <dimension ref="A1:F186"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E18" activeCellId="9" sqref="E9 E10 E11 E12 E13 E14 E15 E16 E17 E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18213,14 +18213,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.5">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>872</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
@@ -20029,7 +20029,7 @@
       <c r="B92" s="8" t="s">
         <v>1152</v>
       </c>
-      <c r="C92" s="31" t="s">
+      <c r="C92" s="33" t="s">
         <v>1153</v>
       </c>
       <c r="D92" s="8" t="s">
@@ -20049,7 +20049,7 @@
       <c r="B93" s="8" t="s">
         <v>1155</v>
       </c>
-      <c r="C93" s="32"/>
+      <c r="C93" s="34"/>
       <c r="D93" s="8" t="s">
         <v>1174</v>
       </c>

--- a/Socheton/Contact/Contact_List.xlsx
+++ b/Socheton/Contact/Contact_List.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F9EF6C-FEAB-4BC0-8B5A-6F941BB52348}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064214A8-8789-49BE-951E-9F674F05EC0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SHED" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2944" uniqueCount="2030">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2956" uniqueCount="2039">
   <si>
     <t>Name</t>
   </si>
@@ -6144,6 +6144,33 @@
       </rPr>
       <t>, adl.hosne@gmail.com</t>
     </r>
+  </si>
+  <si>
+    <t>Syed Mojibul Huq</t>
+  </si>
+  <si>
+    <t>Startup Bangladesh (iDEA)</t>
+  </si>
+  <si>
+    <t>pdidea@bcc.gov.bd</t>
+  </si>
+  <si>
+    <t>Md. Shaheen Ahamed</t>
+  </si>
+  <si>
+    <t>Escort Footwears, Kohinoor Tanneries, Anjuman Trading</t>
+  </si>
+  <si>
+    <t>shaheen@escortfootwears.com universalpellis@gmail.com anjuman823@gmail.com</t>
+  </si>
+  <si>
+    <t>Rehana Akter Ruma</t>
+  </si>
+  <si>
+    <t>Bangladesh Tanners Association (BTA)</t>
+  </si>
+  <si>
+    <t>rumarehana2tannersbd.com</t>
   </si>
 </sst>
 </file>
@@ -8067,10 +8094,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D2DA89-2D91-4E66-BE4F-EE783D5328E7}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E29"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8648,6 +8675,66 @@
       </c>
       <c r="F29" s="15" t="s">
         <v>1478</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="16">
+        <v>28</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>2030</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>2031</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>2032</v>
+      </c>
+      <c r="F30" s="15">
+        <v>1926251637</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="45">
+      <c r="A31" s="16">
+        <v>29</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>2033</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>2034</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>2035</v>
+      </c>
+      <c r="F31" s="15">
+        <v>1711522288</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="30">
+      <c r="A32" s="16">
+        <v>30</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>2036</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>2037</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>2038</v>
+      </c>
+      <c r="F32" s="15">
+        <v>1732148268</v>
       </c>
     </row>
   </sheetData>
@@ -8676,8 +8763,10 @@
     <hyperlink ref="E25" r:id="rId19" xr:uid="{FF8171CA-B59A-47C6-BE1F-A93516D6C41A}"/>
     <hyperlink ref="E27" r:id="rId20" xr:uid="{260E78A3-C22B-47D5-8DD5-FCA1A8732CB9}"/>
     <hyperlink ref="E29" r:id="rId21" xr:uid="{F0DE0A84-C9D9-4EC2-9D23-86DEFAB8D0C9}"/>
+    <hyperlink ref="E30" r:id="rId22" xr:uid="{8C42786E-43D0-4EAF-AA53-6A858D72412D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>
 
@@ -18199,7 +18288,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA97054-2957-4A5E-85E9-9ED43C6A2756}">
   <dimension ref="A1:F186"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
